--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="303">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -201,6 +201,9 @@
     <t xml:space="preserve">Выход из учетной записи</t>
   </si>
   <si>
+    <t xml:space="preserve">Успешный выход из профиля</t>
+  </si>
+  <si>
     <t xml:space="preserve">Приложение запустилось. Пользователь успешно авторизован</t>
   </si>
   <si>
@@ -219,6 +222,9 @@
     <t xml:space="preserve">Авторизация пользователя при незарегистрированном пароле</t>
   </si>
   <si>
+    <t xml:space="preserve">Невозможность авторизации в приложении незарегистрированному пользователю</t>
+  </si>
+  <si>
     <t xml:space="preserve">2. В поле "Login" отобразился введенный логин</t>
   </si>
   <si>
@@ -240,7 +246,7 @@
     <t xml:space="preserve">2. В поле "login" ввести: log  </t>
   </si>
   <si>
-    <t xml:space="preserve">Авторизация в приложении, когда поле "Логин" пустое (негативный)</t>
+    <t xml:space="preserve">Авторизация в приложении, когда поле "Логин" пустое</t>
   </si>
   <si>
     <t xml:space="preserve">2. Поле "Login" оставить пустым  </t>
@@ -252,7 +258,7 @@
     <t xml:space="preserve">4. Отобразилась ошибка:  Login and password cannot be empty</t>
   </si>
   <si>
-    <t xml:space="preserve">Авторизация в приложении, когда поле "Пароль" пустое (негативный)</t>
+    <t xml:space="preserve">Авторизация в приложении, когда поле "Пароль" пустое </t>
   </si>
   <si>
     <t xml:space="preserve">3. В поле "Password" оставить пустым</t>
@@ -1448,6 +1454,9 @@
     <t xml:space="preserve">Возврат на главный экран приложения со страницы About</t>
   </si>
   <si>
+    <t xml:space="preserve">Middle</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Нажать на стрелку назад</t>
   </si>
   <si>
@@ -1561,12 +1570,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. Нажать на стрелку назад </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Личный кабинет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выход их</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1581,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="[$-419]General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1722,6 +1725,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="XO Thames"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1755,7 +1764,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1777,6 +1786,20 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1807,7 +1830,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1884,10 +1907,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1896,6 +1927,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1960,6 +1995,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1968,6 +2007,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1996,14 +2039,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2058,6 +2093,30 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2146,18 +2205,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G277"/>
+  <dimension ref="A1:G282"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B155" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B163" activeCellId="0" sqref="B163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I79" activeCellId="0" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="32.05"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="11.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.09"/>
@@ -2377,7 +2436,7 @@
       <c r="C14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -2394,7 +2453,7 @@
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="13"/>
@@ -2409,7 +2468,7 @@
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="13"/>
@@ -2424,7 +2483,7 @@
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="13"/>
@@ -2442,45 +2501,49 @@
       <c r="B18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>50</v>
+      <c r="E18" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
+      <c r="B20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -2490,57 +2553,59 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18" t="s">
+      <c r="B24" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -2550,57 +2615,59 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="18" t="s">
+      <c r="B28" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -2612,55 +2679,57 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="18" t="s">
+      <c r="B32" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -2670,57 +2739,59 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="16"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="18" t="s">
+      <c r="B36" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -2732,46 +2803,46 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2781,154 +2852,154 @@
       <c r="G40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="n">
+      <c r="A41" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="19" t="s">
+      <c r="B41" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="22" t="s">
-        <v>76</v>
+      <c r="E41" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G41" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="22"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23" t="s">
+      <c r="F43" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="19" t="s">
+      <c r="G43" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="27" t="n">
+        <v>13</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="19" t="s">
+      <c r="E45" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="27"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="19" t="s">
+      <c r="E46" s="25"/>
+      <c r="F46" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20" t="n">
-        <v>14</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="19" t="s">
+      <c r="E47" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="28" t="n">
+        <v>15</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="25.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25" t="n">
-        <v>15</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>94</v>
+      <c r="E48" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2937,93 +3008,93 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="27" t="n">
+    <row r="50" customFormat="false" ht="49.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="30" t="n">
         <v>16</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>97</v>
+      <c r="B50" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="C50" s="15"/>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="48.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="27" t="n">
+      <c r="E50" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="30" t="n">
         <v>17</v>
       </c>
-      <c r="B51" s="28" t="s">
-        <v>100</v>
+      <c r="B51" s="31" t="s">
+        <v>102</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="29" t="s">
+      <c r="E51" s="25" t="s">
         <v>103</v>
       </c>
+      <c r="F51" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="27" t="n">
+      <c r="A52" s="30" t="n">
         <v>18</v>
       </c>
-      <c r="B52" s="28" t="s">
-        <v>104</v>
+      <c r="B52" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="C52" s="15"/>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="22" t="s">
-        <v>101</v>
+      <c r="E52" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="48.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="27" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="30" t="n">
         <v>19</v>
       </c>
-      <c r="B53" s="30" t="s">
-        <v>107</v>
+      <c r="B53" s="33" t="s">
+        <v>109</v>
       </c>
       <c r="C53" s="15"/>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>108</v>
+      <c r="E53" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -3033,239 +3104,257 @@
       <c r="G54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="31" t="n">
+      <c r="A55" s="34" t="n">
         <v>20</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F55" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="G55" s="21" t="s">
+      <c r="D55" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="25" t="s">
         <v>114</v>
       </c>
+      <c r="F55" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="31"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="17"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
-      <c r="E56" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
+      <c r="E56" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
     </row>
     <row r="57" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="34" t="n">
+      <c r="A57" s="37" t="n">
         <v>21</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="22" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>114</v>
       </c>
       <c r="F57" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="37"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="34"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="33" t="s">
-        <v>115</v>
-      </c>
       <c r="F58" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="39.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="25" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="28" t="n">
         <v>22</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F59" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="G59" s="37" t="s">
+      <c r="C59" s="38"/>
+      <c r="D59" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="25" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20" t="n">
+      <c r="F59" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="22" t="n">
         <v>23</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G60" s="37" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" s="40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="22"/>
       <c r="B61" s="13"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="36" t="s">
+      <c r="C61" s="18"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="22"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="37.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="G61" s="37" t="s">
+      <c r="G63" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="27"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="25"/>
+      <c r="F64" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G64" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="27"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="25"/>
+      <c r="F65" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="27"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="25"/>
+      <c r="F66" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" s="40" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="G62" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="24" t="n">
-        <v>24</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F63" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G63" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="37.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="24"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G64" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="24"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G65" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="24"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G66" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="20" t="n">
-        <v>25</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F67" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G67" s="37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="37.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="20"/>
+    <row r="68" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="22"/>
       <c r="B68" s="17"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="G68" s="29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="20"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="22"/>
       <c r="B69" s="17"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G69" s="23" t="s">
-        <v>144</v>
+      <c r="C69" s="18"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -3274,684 +3363,708 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" customFormat="false" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="38" t="n">
+    <row r="71" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="42" t="n">
         <v>26</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="22" t="s">
-        <v>122</v>
+        <v>148</v>
+      </c>
+      <c r="C71" s="38"/>
+      <c r="D71" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="39" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="33.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="43" t="n">
         <v>27</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F72" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="G72" s="29" t="s">
+      <c r="C72" s="18"/>
+      <c r="D72" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="25" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="39"/>
+      <c r="F72" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72" s="32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="43"/>
       <c r="B73" s="13"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="G73" s="29" t="s">
-        <v>154</v>
+      <c r="C73" s="18"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="38"/>
+      <c r="A74" s="42"/>
       <c r="B74" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="22" t="s">
-        <v>150</v>
+        <v>157</v>
+      </c>
+      <c r="C74" s="18"/>
+      <c r="D74" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>152</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="39" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="43" t="n">
         <v>28</v>
       </c>
       <c r="B75" s="13"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="22"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="39"/>
+    <row r="76" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="43"/>
       <c r="B76" s="13"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="G76" s="41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="39"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="G76" s="46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="43"/>
       <c r="B77" s="13"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="G77" s="41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="39"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="G77" s="46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="43"/>
       <c r="B78" s="13"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="G78" s="41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="39"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="G78" s="46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="43"/>
       <c r="B79" s="13"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G79" s="41" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="37.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="39"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="G79" s="46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="43"/>
       <c r="B80" s="13"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="G80" s="40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="39"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G80" s="45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="43"/>
       <c r="B81" s="13"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="G81" s="41" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="43" t="n">
+      <c r="C81" s="18"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="G81" s="46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="48" t="n">
         <v>29</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F82" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="G82" s="29" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="43"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G82" s="32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="48"/>
       <c r="B83" s="13"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="G83" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G83" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="16" t="n">
         <v>30</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F84" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="G84" s="29" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="18"/>
+      <c r="D84" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G84" s="32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="16"/>
       <c r="B85" s="13"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="G85" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="39" t="n">
+      <c r="C85" s="18"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G85" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="43" t="n">
         <v>31</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="F86" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="G86" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="39"/>
+        <v>179</v>
+      </c>
+      <c r="C86" s="18"/>
+      <c r="D86" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F86" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G86" s="32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="43"/>
       <c r="B87" s="13"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="G87" s="41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="39"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="G87" s="46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="43"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="G88" s="41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="39"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="G88" s="46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="43"/>
       <c r="B89" s="13"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="G89" s="41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="39"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="G89" s="46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="43"/>
       <c r="B90" s="13"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G90" s="41" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="37.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="39"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="G90" s="46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="43"/>
       <c r="B91" s="13"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="G91" s="40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="39"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="G91" s="45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="43"/>
       <c r="B92" s="13"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="G92" s="29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C92" s="18"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G92" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="16" t="n">
         <v>32</v>
       </c>
-      <c r="B93" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="F93" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="G93" s="29" t="s">
+      <c r="B93" s="50" t="s">
         <v>186</v>
+      </c>
+      <c r="C93" s="18"/>
+      <c r="D93" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G93" s="32" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="26.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="16"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="19"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="20"/>
       <c r="F94" s="14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="30.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="16"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="G95" s="41" t="s">
-        <v>190</v>
+      <c r="B95" s="50"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="20"/>
+      <c r="F95" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="G95" s="46" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="30.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="16" t="n">
         <v>33</v>
       </c>
-      <c r="B96" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="F96" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="G96" s="29" t="s">
-        <v>172</v>
+      <c r="B96" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="18"/>
+      <c r="D96" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="F96" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G96" s="32" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="31.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="16"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="46"/>
-      <c r="F97" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="G97" s="41" t="s">
-        <v>193</v>
+      <c r="B97" s="50"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="G97" s="46" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="16" t="n">
         <v>34</v>
       </c>
-      <c r="B98" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="F98" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="G98" s="29" t="s">
-        <v>172</v>
+      <c r="B98" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="18"/>
+      <c r="D98" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F98" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G98" s="32" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="16"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="G99" s="41" t="s">
-        <v>159</v>
+      <c r="B99" s="50"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="G99" s="46" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="16"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="G100" s="41" t="s">
-        <v>161</v>
+      <c r="B100" s="50"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="G100" s="46" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="16"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="G101" s="41" t="s">
-        <v>163</v>
+      <c r="B101" s="50"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G101" s="46" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="16"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="G102" s="41" t="s">
-        <v>180</v>
+      <c r="B102" s="50"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="G102" s="46" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="16"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="G103" s="40" t="s">
-        <v>167</v>
+      <c r="B103" s="50"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="G103" s="45" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="16"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="19"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="20"/>
       <c r="F104" s="12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="16"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="35" t="s">
-        <v>201</v>
+      <c r="B105" s="50"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="38" t="s">
+        <v>203</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="16" t="n">
         <v>35</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="F106" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="G106" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+      <c r="C106" s="18"/>
+      <c r="D106" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F106" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G106" s="32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="16"/>
       <c r="B107" s="13"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="44"/>
-      <c r="F107" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="G107" s="41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="18"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="G107" s="46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="16"/>
       <c r="B108" s="13"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="44"/>
-      <c r="F108" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="G108" s="41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="18"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="G108" s="46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="16"/>
       <c r="B109" s="13"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="G109" s="41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="18"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="G109" s="46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="16"/>
       <c r="B110" s="13"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G110" s="41" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="37.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="18"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="G110" s="46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="16"/>
       <c r="B111" s="13"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="G111" s="40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="18"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="G111" s="45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="16"/>
       <c r="B112" s="13"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="44"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="49"/>
       <c r="F112" s="12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="16"/>
       <c r="B113" s="13"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="44"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="49"/>
       <c r="F113" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="16"/>
       <c r="B114" s="13"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="44"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="49"/>
       <c r="F114" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="37.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="16"/>
       <c r="B115" s="13"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="44"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="49"/>
       <c r="F115" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="16"/>
       <c r="B116" s="13"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="44"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="49"/>
       <c r="F116" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="16"/>
       <c r="B117" s="13"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="44"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="49"/>
       <c r="F117" s="12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="16"/>
       <c r="B118" s="13"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="44"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="49"/>
       <c r="F118" s="12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3959,398 +4072,408 @@
         <v>36</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="F119" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G119" s="47" t="s">
+      <c r="C119" s="18"/>
+      <c r="D119" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="20" t="s">
         <v>220</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="16"/>
       <c r="B120" s="13"/>
-      <c r="C120" s="35"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="G120" s="47" t="s">
-        <v>222</v>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="26.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="16"/>
       <c r="B121" s="13"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="G121" s="48" t="s">
-        <v>224</v>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G121" s="21" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="26.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="16"/>
       <c r="B122" s="13"/>
-      <c r="C122" s="35"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="G122" s="47" t="s">
-        <v>226</v>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G122" s="24" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="16"/>
       <c r="B123" s="13"/>
-      <c r="C123" s="35"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="G123" s="47" t="s">
-        <v>228</v>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="31.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="16"/>
       <c r="B124" s="13"/>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="G124" s="47" t="s">
-        <v>230</v>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G124" s="24" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="16" t="n">
         <v>37</v>
       </c>
-      <c r="B125" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="C125" s="35"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="F125" s="48" t="s">
+      <c r="B125" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="G125" s="47" t="s">
+      <c r="C125" s="18"/>
+      <c r="D125" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="20" t="s">
         <v>234</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="16"/>
-      <c r="B126" s="45"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="G126" s="50" t="s">
-        <v>236</v>
+      <c r="B126" s="50"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="G126" s="53" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="39.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="16"/>
-      <c r="B127" s="45"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="G127" s="49" t="s">
-        <v>238</v>
+      <c r="B127" s="50"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="G127" s="52" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="55.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="16"/>
-      <c r="B128" s="45"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="G128" s="49" t="s">
-        <v>240</v>
+      <c r="B128" s="50"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="G128" s="52" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="40.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="16"/>
-      <c r="B129" s="45"/>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="35" t="s">
-        <v>241</v>
+      <c r="B129" s="50"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="38" t="s">
+        <v>243</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="39.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="16"/>
-      <c r="B130" s="45"/>
-      <c r="C130" s="35"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="35" t="s">
-        <v>243</v>
+      <c r="B130" s="50"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="38" t="s">
+        <v>245</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="16"/>
-      <c r="B131" s="45"/>
-      <c r="C131" s="35"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="19"/>
+      <c r="B131" s="50"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="20"/>
       <c r="F131" s="14" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="16" t="n">
         <v>38</v>
       </c>
-      <c r="B132" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="F132" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="G132" s="29" t="s">
-        <v>172</v>
+      <c r="B132" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C132" s="18"/>
+      <c r="D132" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F132" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G132" s="32" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="16"/>
-      <c r="B133" s="45"/>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="44"/>
-      <c r="F133" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="G133" s="41" t="s">
-        <v>159</v>
+      <c r="B133" s="50"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="G133" s="46" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="16"/>
-      <c r="B134" s="45"/>
-      <c r="C134" s="35"/>
-      <c r="D134" s="35"/>
-      <c r="E134" s="44"/>
-      <c r="F134" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="G134" s="41" t="s">
-        <v>161</v>
+      <c r="B134" s="50"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="G134" s="46" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="16"/>
-      <c r="B135" s="45"/>
-      <c r="C135" s="35"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="44"/>
-      <c r="F135" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="G135" s="41" t="s">
-        <v>163</v>
+      <c r="B135" s="50"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="G135" s="46" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="16"/>
-      <c r="B136" s="45"/>
-      <c r="C136" s="35"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="44"/>
-      <c r="F136" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G136" s="41" t="s">
-        <v>180</v>
+      <c r="B136" s="50"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="G136" s="46" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="16"/>
-      <c r="B137" s="45"/>
-      <c r="C137" s="35"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="44"/>
-      <c r="F137" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="G137" s="40" t="s">
-        <v>167</v>
+      <c r="B137" s="50"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="G137" s="45" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="46.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="16"/>
-      <c r="B138" s="45"/>
-      <c r="C138" s="35"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="44"/>
+      <c r="B138" s="50"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="49"/>
       <c r="F138" s="12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="16"/>
-      <c r="B139" s="45"/>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="44"/>
-      <c r="F139" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="G139" s="51" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="50"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="G139" s="54" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="16"/>
-      <c r="B140" s="45"/>
-      <c r="C140" s="35"/>
-      <c r="D140" s="35"/>
-      <c r="E140" s="44"/>
-      <c r="F140" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="G140" s="51" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B140" s="50"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="G140" s="54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="16" t="n">
         <v>39</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C141" s="35"/>
-      <c r="D141" s="35"/>
-      <c r="E141" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="F141" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="G141" s="52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>257</v>
+      </c>
+      <c r="C141" s="18"/>
+      <c r="D141" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F141" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="G141" s="55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="16"/>
       <c r="B142" s="13"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="44"/>
-      <c r="F142" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="G142" s="52" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="18"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="G142" s="55" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="16"/>
       <c r="B143" s="13"/>
-      <c r="C143" s="35"/>
-      <c r="D143" s="35"/>
-      <c r="E143" s="44"/>
-      <c r="F143" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="G143" s="52" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C143" s="18"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="G143" s="55" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="16" t="n">
         <v>40</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C144" s="35"/>
-      <c r="D144" s="35"/>
-      <c r="E144" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="F144" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="G144" s="52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+      <c r="C144" s="18"/>
+      <c r="D144" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F144" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="G144" s="55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="16"/>
       <c r="B145" s="13"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="35"/>
-      <c r="E145" s="44"/>
-      <c r="F145" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="G145" s="52" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="37.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="49"/>
+      <c r="F145" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="G145" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="16"/>
       <c r="B146" s="13"/>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="44"/>
-      <c r="F146" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="G146" s="52" t="s">
-        <v>265</v>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="49"/>
+      <c r="F146" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="G146" s="55" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -4363,120 +4486,128 @@
       <c r="A148" s="16" t="n">
         <v>41</v>
       </c>
-      <c r="B148" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="C148" s="35"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="F148" s="55" t="s">
+      <c r="B148" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="G148" s="55" t="s">
+      <c r="C148" s="18"/>
+      <c r="D148" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="51" t="s">
         <v>270</v>
+      </c>
+      <c r="F148" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="G148" s="58" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="16"/>
-      <c r="B149" s="54"/>
-      <c r="C149" s="35"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="46"/>
-      <c r="F149" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="G149" s="55" t="s">
-        <v>272</v>
+      <c r="B149" s="57"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="51"/>
+      <c r="F149" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="G149" s="58" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="16"/>
-      <c r="B150" s="54"/>
-      <c r="C150" s="35"/>
-      <c r="D150" s="35"/>
-      <c r="E150" s="46"/>
-      <c r="F150" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="G150" s="55" t="s">
-        <v>274</v>
+      <c r="B150" s="57"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="51"/>
+      <c r="F150" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="G150" s="58" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="16"/>
-      <c r="B151" s="54"/>
-      <c r="C151" s="35"/>
-      <c r="D151" s="35"/>
-      <c r="E151" s="46"/>
-      <c r="F151" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="G151" s="55" t="s">
-        <v>276</v>
+      <c r="B151" s="57"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="51"/>
+      <c r="F151" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="G151" s="58" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="41.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="27" t="n">
+      <c r="A152" s="30" t="n">
         <v>42</v>
       </c>
-      <c r="B152" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="C152" s="35"/>
-      <c r="D152" s="35"/>
-      <c r="E152" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="F152" s="56" t="s">
-        <v>278</v>
-      </c>
-      <c r="G152" s="56" t="s">
+      <c r="B152" s="59" t="s">
         <v>279</v>
       </c>
+      <c r="C152" s="38"/>
+      <c r="D152" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="F152" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="G152" s="59" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="27" t="n">
+      <c r="A153" s="30" t="n">
         <v>43</v>
       </c>
-      <c r="B153" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="C153" s="35"/>
-      <c r="D153" s="35"/>
-      <c r="E153" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="F153" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="G153" s="56" t="s">
+      <c r="B153" s="59" t="s">
         <v>282</v>
       </c>
+      <c r="C153" s="38"/>
+      <c r="D153" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="F153" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="G153" s="59" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="27" t="n">
+      <c r="A154" s="30" t="n">
         <v>44</v>
       </c>
-      <c r="B154" s="57" t="s">
-        <v>283</v>
-      </c>
-      <c r="C154" s="35"/>
-      <c r="D154" s="35"/>
-      <c r="E154" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="F154" s="56" t="s">
-        <v>284</v>
-      </c>
-      <c r="G154" s="56" t="s">
+      <c r="B154" s="60" t="s">
         <v>285</v>
+      </c>
+      <c r="C154" s="38"/>
+      <c r="D154" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E154" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="F154" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="G154" s="59" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -4485,1144 +4616,1191 @@
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
     </row>
-    <row r="156" customFormat="false" ht="27.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="27" t="n">
+    <row r="156" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="30" t="n">
         <v>45</v>
       </c>
-      <c r="B156" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="C156" s="35"/>
-      <c r="D156" s="35"/>
+      <c r="B156" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="C156" s="38"/>
+      <c r="D156" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="E156" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="F156" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G156" s="62" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="30"/>
+      <c r="B157" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="C157" s="18"/>
+      <c r="D157" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E157" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="F157" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="G157" s="59" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="30" t="n">
+        <v>46</v>
+      </c>
+      <c r="B158" s="63"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="38"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="G158" s="59" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="49.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="30" t="n">
+        <v>47</v>
+      </c>
+      <c r="B159" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="C159" s="38"/>
+      <c r="D159" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="F159" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="G159" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="F156" s="59" t="s">
-        <v>289</v>
-      </c>
-      <c r="G156" s="59" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="27"/>
-      <c r="B157" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="C157" s="35"/>
-      <c r="D157" s="35"/>
-      <c r="E157" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="F157" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="G157" s="56" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="27" t="n">
-        <v>46</v>
-      </c>
-      <c r="B158" s="60"/>
-      <c r="C158" s="35"/>
-      <c r="D158" s="35"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="G158" s="56" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="27" t="n">
-        <v>47</v>
-      </c>
-      <c r="B159" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="C159" s="35"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="F159" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="G159" s="56" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="27"/>
-      <c r="B160" s="10" t="s">
-        <v>300</v>
-      </c>
+      <c r="A160" s="30"/>
+      <c r="B160" s="10"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="27"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="35"/>
-      <c r="D161" s="35"/>
-      <c r="E161" s="35"/>
-      <c r="F161" s="35"/>
-      <c r="G161" s="35"/>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="27"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="35"/>
-      <c r="D162" s="35"/>
-      <c r="E162" s="35"/>
-      <c r="F162" s="35"/>
-      <c r="G162" s="35"/>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="27"/>
-      <c r="B163" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="30"/>
+      <c r="B161" s="66"/>
+      <c r="C161" s="38"/>
+      <c r="D161" s="38"/>
+      <c r="E161" s="38"/>
+      <c r="F161" s="38"/>
+      <c r="G161" s="38"/>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="30"/>
+      <c r="B162" s="66"/>
+      <c r="C162" s="38"/>
+      <c r="D162" s="38"/>
+      <c r="E162" s="38"/>
+      <c r="F162" s="38"/>
+      <c r="G162" s="38"/>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="30"/>
+      <c r="B163" s="64"/>
+      <c r="C163" s="38"/>
+      <c r="D163" s="38"/>
+      <c r="E163" s="38"/>
+      <c r="F163" s="67"/>
+      <c r="G163" s="68"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="27"/>
-      <c r="B164" s="35"/>
-      <c r="C164" s="35"/>
-      <c r="D164" s="35"/>
-      <c r="E164" s="35"/>
-      <c r="F164" s="35"/>
-      <c r="G164" s="35"/>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="27"/>
-      <c r="B165" s="35"/>
-      <c r="C165" s="35"/>
-      <c r="D165" s="35"/>
-      <c r="E165" s="35"/>
-      <c r="F165" s="35"/>
-      <c r="G165" s="35"/>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="27"/>
-      <c r="B166" s="35"/>
-      <c r="C166" s="35"/>
-      <c r="D166" s="35"/>
-      <c r="E166" s="35"/>
-      <c r="F166" s="35"/>
-      <c r="G166" s="35"/>
+      <c r="A164" s="30"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="30"/>
+      <c r="B165" s="64"/>
+      <c r="C165" s="38"/>
+      <c r="D165" s="38"/>
+      <c r="E165" s="38"/>
+      <c r="F165" s="38"/>
+      <c r="G165" s="38"/>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="30"/>
+      <c r="B166" s="61"/>
+      <c r="C166" s="38"/>
+      <c r="D166" s="38"/>
+      <c r="E166" s="38"/>
+      <c r="F166" s="38"/>
+      <c r="G166" s="38"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="27"/>
-      <c r="B167" s="35"/>
-      <c r="C167" s="35"/>
-      <c r="D167" s="35"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="35"/>
-      <c r="G167" s="35"/>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="27"/>
-      <c r="B168" s="35"/>
-      <c r="C168" s="35"/>
-      <c r="D168" s="35"/>
-      <c r="E168" s="35"/>
-      <c r="F168" s="35"/>
-      <c r="G168" s="35"/>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="27"/>
-      <c r="B169" s="35"/>
-      <c r="C169" s="35"/>
-      <c r="D169" s="35"/>
-      <c r="E169" s="35"/>
-      <c r="F169" s="35"/>
-      <c r="G169" s="35"/>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="27"/>
-      <c r="B170" s="35"/>
-      <c r="C170" s="35"/>
-      <c r="D170" s="35"/>
-      <c r="E170" s="35"/>
-      <c r="F170" s="35"/>
-      <c r="G170" s="35"/>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="27"/>
-      <c r="B171" s="35"/>
-      <c r="C171" s="35"/>
-      <c r="D171" s="35"/>
-      <c r="E171" s="35"/>
-      <c r="F171" s="35"/>
-      <c r="G171" s="35"/>
+      <c r="A167" s="30"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="30"/>
+      <c r="B168" s="69"/>
+      <c r="C168" s="38"/>
+      <c r="D168" s="38"/>
+      <c r="E168" s="38"/>
+      <c r="F168" s="38"/>
+      <c r="G168" s="38"/>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="30"/>
+      <c r="B169" s="64"/>
+      <c r="C169" s="38"/>
+      <c r="D169" s="38"/>
+      <c r="E169" s="38"/>
+      <c r="F169" s="38"/>
+      <c r="G169" s="38"/>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="30"/>
+      <c r="B170" s="69"/>
+      <c r="C170" s="38"/>
+      <c r="D170" s="38"/>
+      <c r="E170" s="38"/>
+      <c r="F170" s="38"/>
+      <c r="G170" s="38"/>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="30"/>
+      <c r="B171" s="69"/>
+      <c r="C171" s="38"/>
+      <c r="D171" s="38"/>
+      <c r="E171" s="38"/>
+      <c r="F171" s="38"/>
+      <c r="G171" s="38"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="27"/>
-      <c r="B172" s="35"/>
-      <c r="C172" s="35"/>
-      <c r="D172" s="35"/>
-      <c r="E172" s="35"/>
-      <c r="F172" s="35"/>
-      <c r="G172" s="35"/>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="27"/>
-      <c r="B173" s="35"/>
-      <c r="C173" s="35"/>
-      <c r="D173" s="35"/>
-      <c r="E173" s="35"/>
-      <c r="F173" s="35"/>
-      <c r="G173" s="35"/>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="27"/>
-      <c r="B174" s="35"/>
-      <c r="C174" s="35"/>
-      <c r="D174" s="35"/>
-      <c r="E174" s="35"/>
-      <c r="F174" s="35"/>
-      <c r="G174" s="35"/>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="27"/>
-      <c r="B175" s="35"/>
-      <c r="C175" s="35"/>
-      <c r="D175" s="35"/>
-      <c r="E175" s="35"/>
-      <c r="F175" s="35"/>
-      <c r="G175" s="35"/>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="27"/>
-      <c r="B176" s="35"/>
-      <c r="C176" s="35"/>
-      <c r="D176" s="35"/>
-      <c r="E176" s="35"/>
-      <c r="F176" s="35"/>
-      <c r="G176" s="35"/>
+      <c r="A172" s="30"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="30"/>
+      <c r="B173" s="69"/>
+      <c r="C173" s="38"/>
+      <c r="D173" s="38"/>
+      <c r="E173" s="38"/>
+      <c r="F173" s="38"/>
+      <c r="G173" s="38"/>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="30"/>
+      <c r="B174" s="64"/>
+      <c r="C174" s="38"/>
+      <c r="D174" s="38"/>
+      <c r="E174" s="38"/>
+      <c r="F174" s="38"/>
+      <c r="G174" s="38"/>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="30"/>
+      <c r="B175" s="64"/>
+      <c r="C175" s="38"/>
+      <c r="D175" s="38"/>
+      <c r="E175" s="38"/>
+      <c r="F175" s="38"/>
+      <c r="G175" s="38"/>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="30"/>
+      <c r="B176" s="64"/>
+      <c r="C176" s="38"/>
+      <c r="D176" s="38"/>
+      <c r="E176" s="38"/>
+      <c r="F176" s="38"/>
+      <c r="G176" s="38"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="27"/>
-      <c r="B177" s="35"/>
-      <c r="C177" s="35"/>
-      <c r="D177" s="35"/>
-      <c r="E177" s="35"/>
-      <c r="F177" s="35"/>
-      <c r="G177" s="35"/>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="27"/>
-      <c r="B178" s="35"/>
-      <c r="C178" s="35"/>
-      <c r="D178" s="35"/>
-      <c r="E178" s="35"/>
-      <c r="F178" s="35"/>
-      <c r="G178" s="35"/>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="27"/>
-      <c r="B179" s="35"/>
-      <c r="C179" s="35"/>
-      <c r="D179" s="35"/>
-      <c r="E179" s="35"/>
-      <c r="F179" s="35"/>
-      <c r="G179" s="35"/>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="27"/>
-      <c r="B180" s="35"/>
-      <c r="C180" s="35"/>
-      <c r="D180" s="35"/>
-      <c r="E180" s="35"/>
-      <c r="F180" s="35"/>
-      <c r="G180" s="35"/>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="27"/>
-      <c r="B181" s="35"/>
-      <c r="C181" s="35"/>
-      <c r="D181" s="35"/>
-      <c r="E181" s="35"/>
-      <c r="F181" s="35"/>
-      <c r="G181" s="35"/>
+      <c r="A177" s="30"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="30"/>
+      <c r="B178" s="70"/>
+      <c r="C178" s="38"/>
+      <c r="D178" s="38"/>
+      <c r="E178" s="38"/>
+      <c r="F178" s="38"/>
+      <c r="G178" s="38"/>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="30"/>
+      <c r="B179" s="71"/>
+      <c r="C179" s="38"/>
+      <c r="D179" s="38"/>
+      <c r="E179" s="38"/>
+      <c r="F179" s="38"/>
+      <c r="G179" s="38"/>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="30"/>
+      <c r="B180" s="71"/>
+      <c r="C180" s="38"/>
+      <c r="D180" s="38"/>
+      <c r="E180" s="38"/>
+      <c r="F180" s="38"/>
+      <c r="G180" s="38"/>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="30"/>
+      <c r="B181" s="71"/>
+      <c r="C181" s="38"/>
+      <c r="D181" s="38"/>
+      <c r="E181" s="38"/>
+      <c r="F181" s="38"/>
+      <c r="G181" s="38"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="27"/>
-      <c r="B182" s="35"/>
-      <c r="C182" s="35"/>
-      <c r="D182" s="35"/>
-      <c r="E182" s="35"/>
-      <c r="F182" s="35"/>
-      <c r="G182" s="35"/>
+      <c r="A182" s="30"/>
+      <c r="B182" s="38"/>
+      <c r="C182" s="38"/>
+      <c r="D182" s="38"/>
+      <c r="E182" s="38"/>
+      <c r="F182" s="38"/>
+      <c r="G182" s="38"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="27"/>
-      <c r="B183" s="35"/>
-      <c r="C183" s="35"/>
-      <c r="D183" s="35"/>
-      <c r="E183" s="35"/>
-      <c r="F183" s="35"/>
-      <c r="G183" s="35"/>
+      <c r="A183" s="30"/>
+      <c r="B183" s="38"/>
+      <c r="C183" s="38"/>
+      <c r="D183" s="38"/>
+      <c r="E183" s="38"/>
+      <c r="F183" s="38"/>
+      <c r="G183" s="38"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="27"/>
-      <c r="B184" s="35"/>
-      <c r="C184" s="35"/>
-      <c r="D184" s="35"/>
-      <c r="E184" s="35"/>
-      <c r="F184" s="35"/>
-      <c r="G184" s="35"/>
+      <c r="A184" s="30"/>
+      <c r="B184" s="38"/>
+      <c r="C184" s="38"/>
+      <c r="D184" s="38"/>
+      <c r="E184" s="38"/>
+      <c r="F184" s="38"/>
+      <c r="G184" s="38"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="27"/>
-      <c r="B185" s="35"/>
-      <c r="C185" s="35"/>
-      <c r="D185" s="35"/>
-      <c r="E185" s="35"/>
-      <c r="F185" s="35"/>
-      <c r="G185" s="35"/>
+      <c r="A185" s="30"/>
+      <c r="B185" s="38"/>
+      <c r="C185" s="38"/>
+      <c r="D185" s="38"/>
+      <c r="E185" s="38"/>
+      <c r="F185" s="38"/>
+      <c r="G185" s="38"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="27"/>
-      <c r="B186" s="35"/>
-      <c r="C186" s="35"/>
-      <c r="D186" s="35"/>
-      <c r="E186" s="35"/>
-      <c r="F186" s="35"/>
-      <c r="G186" s="35"/>
+      <c r="A186" s="30"/>
+      <c r="B186" s="38"/>
+      <c r="C186" s="38"/>
+      <c r="D186" s="38"/>
+      <c r="E186" s="38"/>
+      <c r="F186" s="38"/>
+      <c r="G186" s="38"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="27"/>
-      <c r="B187" s="35"/>
-      <c r="C187" s="35"/>
-      <c r="D187" s="35"/>
-      <c r="E187" s="35"/>
-      <c r="F187" s="35"/>
-      <c r="G187" s="35"/>
+      <c r="A187" s="30"/>
+      <c r="B187" s="38"/>
+      <c r="C187" s="38"/>
+      <c r="D187" s="38"/>
+      <c r="E187" s="38"/>
+      <c r="F187" s="38"/>
+      <c r="G187" s="38"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="27"/>
-      <c r="B188" s="35"/>
-      <c r="C188" s="35"/>
-      <c r="D188" s="35"/>
-      <c r="E188" s="35"/>
-      <c r="F188" s="35"/>
-      <c r="G188" s="35"/>
+      <c r="A188" s="30"/>
+      <c r="B188" s="38"/>
+      <c r="C188" s="38"/>
+      <c r="D188" s="38"/>
+      <c r="E188" s="38"/>
+      <c r="F188" s="38"/>
+      <c r="G188" s="38"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="27"/>
-      <c r="B189" s="35"/>
-      <c r="C189" s="35"/>
-      <c r="D189" s="35"/>
-      <c r="E189" s="35"/>
-      <c r="F189" s="35"/>
-      <c r="G189" s="35"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="63"/>
-      <c r="B190" s="64"/>
-      <c r="C190" s="64"/>
-      <c r="D190" s="64"/>
-      <c r="E190" s="64"/>
-      <c r="F190" s="64"/>
-      <c r="G190" s="64"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="63"/>
-      <c r="B191" s="64"/>
-      <c r="C191" s="64"/>
-      <c r="D191" s="64"/>
-      <c r="E191" s="64"/>
-      <c r="F191" s="64"/>
-      <c r="G191" s="64"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="63"/>
-      <c r="B192" s="64"/>
-      <c r="C192" s="64"/>
-      <c r="D192" s="64"/>
-      <c r="E192" s="64"/>
-      <c r="F192" s="64"/>
-      <c r="G192" s="64"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="63"/>
-      <c r="B193" s="64"/>
-      <c r="C193" s="64"/>
-      <c r="D193" s="64"/>
-      <c r="E193" s="64"/>
-      <c r="F193" s="64"/>
-      <c r="G193" s="64"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="63"/>
-      <c r="B194" s="64"/>
-      <c r="C194" s="64"/>
-      <c r="D194" s="64"/>
-      <c r="E194" s="64"/>
-      <c r="F194" s="64"/>
-      <c r="G194" s="64"/>
+      <c r="A189" s="30"/>
+      <c r="B189" s="38"/>
+      <c r="C189" s="38"/>
+      <c r="D189" s="38"/>
+      <c r="E189" s="38"/>
+      <c r="F189" s="38"/>
+      <c r="G189" s="38"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="30"/>
+      <c r="B190" s="38"/>
+      <c r="C190" s="38"/>
+      <c r="D190" s="38"/>
+      <c r="E190" s="38"/>
+      <c r="F190" s="38"/>
+      <c r="G190" s="38"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="30"/>
+      <c r="B191" s="38"/>
+      <c r="C191" s="38"/>
+      <c r="D191" s="38"/>
+      <c r="E191" s="38"/>
+      <c r="F191" s="38"/>
+      <c r="G191" s="38"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="30"/>
+      <c r="B192" s="38"/>
+      <c r="C192" s="38"/>
+      <c r="D192" s="38"/>
+      <c r="E192" s="38"/>
+      <c r="F192" s="38"/>
+      <c r="G192" s="38"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="30"/>
+      <c r="B193" s="38"/>
+      <c r="C193" s="38"/>
+      <c r="D193" s="38"/>
+      <c r="E193" s="38"/>
+      <c r="F193" s="38"/>
+      <c r="G193" s="38"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="30"/>
+      <c r="B194" s="38"/>
+      <c r="C194" s="38"/>
+      <c r="D194" s="38"/>
+      <c r="E194" s="38"/>
+      <c r="F194" s="38"/>
+      <c r="G194" s="38"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="63"/>
-      <c r="B195" s="64"/>
-      <c r="C195" s="64"/>
-      <c r="D195" s="64"/>
-      <c r="E195" s="64"/>
-      <c r="F195" s="64"/>
-      <c r="G195" s="64"/>
+      <c r="A195" s="72"/>
+      <c r="B195" s="73"/>
+      <c r="C195" s="73"/>
+      <c r="D195" s="73"/>
+      <c r="E195" s="73"/>
+      <c r="F195" s="73"/>
+      <c r="G195" s="73"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="63"/>
-      <c r="B196" s="64"/>
-      <c r="C196" s="64"/>
-      <c r="D196" s="64"/>
-      <c r="E196" s="64"/>
-      <c r="F196" s="64"/>
-      <c r="G196" s="64"/>
+      <c r="A196" s="72"/>
+      <c r="B196" s="73"/>
+      <c r="C196" s="73"/>
+      <c r="D196" s="73"/>
+      <c r="E196" s="73"/>
+      <c r="F196" s="73"/>
+      <c r="G196" s="73"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="63"/>
-      <c r="B197" s="64"/>
-      <c r="C197" s="64"/>
-      <c r="D197" s="64"/>
-      <c r="E197" s="64"/>
-      <c r="F197" s="64"/>
-      <c r="G197" s="64"/>
+      <c r="A197" s="72"/>
+      <c r="B197" s="73"/>
+      <c r="C197" s="73"/>
+      <c r="D197" s="73"/>
+      <c r="E197" s="73"/>
+      <c r="F197" s="73"/>
+      <c r="G197" s="73"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="63"/>
-      <c r="B198" s="64"/>
-      <c r="C198" s="64"/>
-      <c r="D198" s="64"/>
-      <c r="E198" s="64"/>
-      <c r="F198" s="64"/>
-      <c r="G198" s="64"/>
+      <c r="A198" s="72"/>
+      <c r="B198" s="73"/>
+      <c r="C198" s="73"/>
+      <c r="D198" s="73"/>
+      <c r="E198" s="73"/>
+      <c r="F198" s="73"/>
+      <c r="G198" s="73"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="63"/>
-      <c r="B199" s="64"/>
-      <c r="C199" s="64"/>
-      <c r="D199" s="64"/>
-      <c r="E199" s="64"/>
-      <c r="F199" s="64"/>
-      <c r="G199" s="64"/>
+      <c r="A199" s="72"/>
+      <c r="B199" s="73"/>
+      <c r="C199" s="73"/>
+      <c r="D199" s="73"/>
+      <c r="E199" s="73"/>
+      <c r="F199" s="73"/>
+      <c r="G199" s="73"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="63"/>
-      <c r="B200" s="64"/>
-      <c r="C200" s="64"/>
-      <c r="D200" s="64"/>
-      <c r="E200" s="64"/>
-      <c r="F200" s="64"/>
-      <c r="G200" s="64"/>
+      <c r="A200" s="72"/>
+      <c r="B200" s="73"/>
+      <c r="C200" s="73"/>
+      <c r="D200" s="73"/>
+      <c r="E200" s="73"/>
+      <c r="F200" s="73"/>
+      <c r="G200" s="73"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="63"/>
-      <c r="B201" s="64"/>
-      <c r="C201" s="64"/>
-      <c r="D201" s="64"/>
-      <c r="E201" s="64"/>
-      <c r="F201" s="64"/>
-      <c r="G201" s="64"/>
+      <c r="A201" s="72"/>
+      <c r="B201" s="73"/>
+      <c r="C201" s="73"/>
+      <c r="D201" s="73"/>
+      <c r="E201" s="73"/>
+      <c r="F201" s="73"/>
+      <c r="G201" s="73"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="63"/>
-      <c r="B202" s="64"/>
-      <c r="C202" s="64"/>
-      <c r="D202" s="64"/>
-      <c r="E202" s="64"/>
-      <c r="F202" s="64"/>
-      <c r="G202" s="64"/>
+      <c r="A202" s="72"/>
+      <c r="B202" s="73"/>
+      <c r="C202" s="73"/>
+      <c r="D202" s="73"/>
+      <c r="E202" s="73"/>
+      <c r="F202" s="73"/>
+      <c r="G202" s="73"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="63"/>
-      <c r="B203" s="64"/>
-      <c r="C203" s="64"/>
-      <c r="D203" s="64"/>
-      <c r="E203" s="64"/>
-      <c r="F203" s="64"/>
-      <c r="G203" s="64"/>
+      <c r="A203" s="72"/>
+      <c r="B203" s="73"/>
+      <c r="C203" s="73"/>
+      <c r="D203" s="73"/>
+      <c r="E203" s="73"/>
+      <c r="F203" s="73"/>
+      <c r="G203" s="73"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="63"/>
-      <c r="B204" s="64"/>
-      <c r="C204" s="64"/>
-      <c r="D204" s="64"/>
-      <c r="E204" s="64"/>
-      <c r="F204" s="64"/>
-      <c r="G204" s="64"/>
+      <c r="A204" s="72"/>
+      <c r="B204" s="73"/>
+      <c r="C204" s="73"/>
+      <c r="D204" s="73"/>
+      <c r="E204" s="73"/>
+      <c r="F204" s="73"/>
+      <c r="G204" s="73"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="63"/>
-      <c r="B205" s="64"/>
-      <c r="C205" s="64"/>
-      <c r="D205" s="64"/>
-      <c r="E205" s="64"/>
-      <c r="F205" s="64"/>
-      <c r="G205" s="64"/>
+      <c r="A205" s="72"/>
+      <c r="B205" s="73"/>
+      <c r="C205" s="73"/>
+      <c r="D205" s="73"/>
+      <c r="E205" s="73"/>
+      <c r="F205" s="73"/>
+      <c r="G205" s="73"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="63"/>
-      <c r="B206" s="64"/>
-      <c r="C206" s="64"/>
-      <c r="D206" s="64"/>
-      <c r="E206" s="64"/>
-      <c r="F206" s="64"/>
-      <c r="G206" s="64"/>
+      <c r="A206" s="72"/>
+      <c r="B206" s="73"/>
+      <c r="C206" s="73"/>
+      <c r="D206" s="73"/>
+      <c r="E206" s="73"/>
+      <c r="F206" s="73"/>
+      <c r="G206" s="73"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="63"/>
-      <c r="B207" s="64"/>
-      <c r="C207" s="64"/>
-      <c r="D207" s="64"/>
-      <c r="E207" s="64"/>
-      <c r="F207" s="64"/>
-      <c r="G207" s="64"/>
+      <c r="A207" s="72"/>
+      <c r="B207" s="73"/>
+      <c r="C207" s="73"/>
+      <c r="D207" s="73"/>
+      <c r="E207" s="73"/>
+      <c r="F207" s="73"/>
+      <c r="G207" s="73"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="63"/>
-      <c r="B208" s="64"/>
-      <c r="C208" s="64"/>
-      <c r="D208" s="64"/>
-      <c r="E208" s="64"/>
-      <c r="F208" s="64"/>
-      <c r="G208" s="64"/>
+      <c r="A208" s="72"/>
+      <c r="B208" s="73"/>
+      <c r="C208" s="73"/>
+      <c r="D208" s="73"/>
+      <c r="E208" s="73"/>
+      <c r="F208" s="73"/>
+      <c r="G208" s="73"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="63"/>
-      <c r="B209" s="64"/>
-      <c r="C209" s="64"/>
-      <c r="D209" s="64"/>
-      <c r="E209" s="64"/>
-      <c r="F209" s="64"/>
-      <c r="G209" s="64"/>
+      <c r="A209" s="72"/>
+      <c r="B209" s="73"/>
+      <c r="C209" s="73"/>
+      <c r="D209" s="73"/>
+      <c r="E209" s="73"/>
+      <c r="F209" s="73"/>
+      <c r="G209" s="73"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="63"/>
-      <c r="B210" s="64"/>
-      <c r="C210" s="64"/>
-      <c r="D210" s="64"/>
-      <c r="E210" s="64"/>
-      <c r="F210" s="64"/>
-      <c r="G210" s="64"/>
+      <c r="A210" s="72"/>
+      <c r="B210" s="73"/>
+      <c r="C210" s="73"/>
+      <c r="D210" s="73"/>
+      <c r="E210" s="73"/>
+      <c r="F210" s="73"/>
+      <c r="G210" s="73"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="63"/>
-      <c r="B211" s="64"/>
-      <c r="C211" s="64"/>
-      <c r="D211" s="64"/>
-      <c r="E211" s="64"/>
-      <c r="F211" s="64"/>
-      <c r="G211" s="64"/>
+      <c r="A211" s="72"/>
+      <c r="B211" s="73"/>
+      <c r="C211" s="73"/>
+      <c r="D211" s="73"/>
+      <c r="E211" s="73"/>
+      <c r="F211" s="73"/>
+      <c r="G211" s="73"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="63"/>
-      <c r="B212" s="64"/>
-      <c r="C212" s="64"/>
-      <c r="D212" s="64"/>
-      <c r="E212" s="64"/>
-      <c r="F212" s="64"/>
-      <c r="G212" s="64"/>
+      <c r="A212" s="72"/>
+      <c r="B212" s="73"/>
+      <c r="C212" s="73"/>
+      <c r="D212" s="73"/>
+      <c r="E212" s="73"/>
+      <c r="F212" s="73"/>
+      <c r="G212" s="73"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="63"/>
-      <c r="B213" s="64"/>
-      <c r="C213" s="64"/>
-      <c r="D213" s="64"/>
-      <c r="E213" s="64"/>
-      <c r="F213" s="64"/>
-      <c r="G213" s="64"/>
+      <c r="A213" s="72"/>
+      <c r="B213" s="73"/>
+      <c r="C213" s="73"/>
+      <c r="D213" s="73"/>
+      <c r="E213" s="73"/>
+      <c r="F213" s="73"/>
+      <c r="G213" s="73"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="63"/>
-      <c r="B214" s="64"/>
-      <c r="C214" s="64"/>
-      <c r="D214" s="64"/>
-      <c r="E214" s="64"/>
-      <c r="F214" s="64"/>
-      <c r="G214" s="64"/>
+      <c r="A214" s="72"/>
+      <c r="B214" s="73"/>
+      <c r="C214" s="73"/>
+      <c r="D214" s="73"/>
+      <c r="E214" s="73"/>
+      <c r="F214" s="73"/>
+      <c r="G214" s="73"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="63"/>
-      <c r="B215" s="64"/>
-      <c r="C215" s="64"/>
-      <c r="D215" s="64"/>
-      <c r="E215" s="64"/>
-      <c r="F215" s="64"/>
-      <c r="G215" s="64"/>
+      <c r="A215" s="72"/>
+      <c r="B215" s="73"/>
+      <c r="C215" s="73"/>
+      <c r="D215" s="73"/>
+      <c r="E215" s="73"/>
+      <c r="F215" s="73"/>
+      <c r="G215" s="73"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="63"/>
-      <c r="B216" s="64"/>
-      <c r="C216" s="64"/>
-      <c r="D216" s="64"/>
-      <c r="E216" s="64"/>
-      <c r="F216" s="64"/>
-      <c r="G216" s="64"/>
+      <c r="A216" s="72"/>
+      <c r="B216" s="73"/>
+      <c r="C216" s="73"/>
+      <c r="D216" s="73"/>
+      <c r="E216" s="73"/>
+      <c r="F216" s="73"/>
+      <c r="G216" s="73"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="63"/>
-      <c r="B217" s="64"/>
-      <c r="C217" s="64"/>
-      <c r="D217" s="64"/>
-      <c r="E217" s="64"/>
-      <c r="F217" s="64"/>
-      <c r="G217" s="64"/>
+      <c r="A217" s="72"/>
+      <c r="B217" s="73"/>
+      <c r="C217" s="73"/>
+      <c r="D217" s="73"/>
+      <c r="E217" s="73"/>
+      <c r="F217" s="73"/>
+      <c r="G217" s="73"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="63"/>
-      <c r="B218" s="64"/>
-      <c r="C218" s="64"/>
-      <c r="D218" s="64"/>
-      <c r="E218" s="64"/>
-      <c r="F218" s="64"/>
-      <c r="G218" s="64"/>
+      <c r="A218" s="72"/>
+      <c r="B218" s="73"/>
+      <c r="C218" s="73"/>
+      <c r="D218" s="73"/>
+      <c r="E218" s="73"/>
+      <c r="F218" s="73"/>
+      <c r="G218" s="73"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="63"/>
-      <c r="B219" s="64"/>
-      <c r="C219" s="64"/>
-      <c r="D219" s="64"/>
-      <c r="E219" s="64"/>
-      <c r="F219" s="64"/>
-      <c r="G219" s="64"/>
+      <c r="A219" s="72"/>
+      <c r="B219" s="73"/>
+      <c r="C219" s="73"/>
+      <c r="D219" s="73"/>
+      <c r="E219" s="73"/>
+      <c r="F219" s="73"/>
+      <c r="G219" s="73"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="63"/>
-      <c r="B220" s="64"/>
-      <c r="C220" s="64"/>
-      <c r="D220" s="64"/>
-      <c r="E220" s="64"/>
-      <c r="F220" s="64"/>
-      <c r="G220" s="64"/>
+      <c r="A220" s="72"/>
+      <c r="B220" s="73"/>
+      <c r="C220" s="73"/>
+      <c r="D220" s="73"/>
+      <c r="E220" s="73"/>
+      <c r="F220" s="73"/>
+      <c r="G220" s="73"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="63"/>
-      <c r="B221" s="64"/>
-      <c r="C221" s="64"/>
-      <c r="D221" s="64"/>
-      <c r="E221" s="64"/>
-      <c r="F221" s="64"/>
-      <c r="G221" s="64"/>
+      <c r="A221" s="72"/>
+      <c r="B221" s="73"/>
+      <c r="C221" s="73"/>
+      <c r="D221" s="73"/>
+      <c r="E221" s="73"/>
+      <c r="F221" s="73"/>
+      <c r="G221" s="73"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="63"/>
-      <c r="B222" s="64"/>
-      <c r="C222" s="64"/>
-      <c r="D222" s="64"/>
-      <c r="E222" s="64"/>
-      <c r="F222" s="64"/>
-      <c r="G222" s="64"/>
+      <c r="A222" s="72"/>
+      <c r="B222" s="73"/>
+      <c r="C222" s="73"/>
+      <c r="D222" s="73"/>
+      <c r="E222" s="73"/>
+      <c r="F222" s="73"/>
+      <c r="G222" s="73"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="63"/>
-      <c r="B223" s="64"/>
-      <c r="C223" s="64"/>
-      <c r="D223" s="64"/>
-      <c r="E223" s="64"/>
-      <c r="F223" s="64"/>
-      <c r="G223" s="64"/>
+      <c r="A223" s="72"/>
+      <c r="B223" s="73"/>
+      <c r="C223" s="73"/>
+      <c r="D223" s="73"/>
+      <c r="E223" s="73"/>
+      <c r="F223" s="73"/>
+      <c r="G223" s="73"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="63"/>
-      <c r="B224" s="64"/>
-      <c r="C224" s="64"/>
-      <c r="D224" s="64"/>
-      <c r="E224" s="64"/>
-      <c r="F224" s="64"/>
-      <c r="G224" s="64"/>
+      <c r="A224" s="72"/>
+      <c r="B224" s="73"/>
+      <c r="C224" s="73"/>
+      <c r="D224" s="73"/>
+      <c r="E224" s="73"/>
+      <c r="F224" s="73"/>
+      <c r="G224" s="73"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="63"/>
-      <c r="B225" s="64"/>
-      <c r="C225" s="64"/>
-      <c r="D225" s="64"/>
-      <c r="E225" s="64"/>
-      <c r="F225" s="64"/>
-      <c r="G225" s="64"/>
+      <c r="A225" s="72"/>
+      <c r="B225" s="73"/>
+      <c r="C225" s="73"/>
+      <c r="D225" s="73"/>
+      <c r="E225" s="73"/>
+      <c r="F225" s="73"/>
+      <c r="G225" s="73"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="63"/>
-      <c r="B226" s="64"/>
-      <c r="C226" s="64"/>
-      <c r="D226" s="64"/>
-      <c r="E226" s="64"/>
-      <c r="F226" s="64"/>
-      <c r="G226" s="64"/>
+      <c r="A226" s="72"/>
+      <c r="B226" s="73"/>
+      <c r="C226" s="73"/>
+      <c r="D226" s="73"/>
+      <c r="E226" s="73"/>
+      <c r="F226" s="73"/>
+      <c r="G226" s="73"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="63"/>
-      <c r="B227" s="64"/>
-      <c r="C227" s="64"/>
-      <c r="D227" s="64"/>
-      <c r="E227" s="64"/>
-      <c r="F227" s="64"/>
-      <c r="G227" s="64"/>
+      <c r="A227" s="72"/>
+      <c r="B227" s="73"/>
+      <c r="C227" s="73"/>
+      <c r="D227" s="73"/>
+      <c r="E227" s="73"/>
+      <c r="F227" s="73"/>
+      <c r="G227" s="73"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="63"/>
-      <c r="B228" s="64"/>
-      <c r="C228" s="64"/>
-      <c r="D228" s="64"/>
-      <c r="E228" s="64"/>
-      <c r="F228" s="64"/>
-      <c r="G228" s="64"/>
+      <c r="A228" s="72"/>
+      <c r="B228" s="73"/>
+      <c r="C228" s="73"/>
+      <c r="D228" s="73"/>
+      <c r="E228" s="73"/>
+      <c r="F228" s="73"/>
+      <c r="G228" s="73"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="63"/>
-      <c r="B229" s="64"/>
-      <c r="C229" s="64"/>
-      <c r="D229" s="64"/>
-      <c r="E229" s="64"/>
-      <c r="F229" s="64"/>
-      <c r="G229" s="64"/>
+      <c r="A229" s="72"/>
+      <c r="B229" s="73"/>
+      <c r="C229" s="73"/>
+      <c r="D229" s="73"/>
+      <c r="E229" s="73"/>
+      <c r="F229" s="73"/>
+      <c r="G229" s="73"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="63"/>
-      <c r="B230" s="64"/>
-      <c r="C230" s="64"/>
-      <c r="D230" s="64"/>
-      <c r="E230" s="64"/>
-      <c r="F230" s="64"/>
-      <c r="G230" s="64"/>
+      <c r="A230" s="72"/>
+      <c r="B230" s="73"/>
+      <c r="C230" s="73"/>
+      <c r="D230" s="73"/>
+      <c r="E230" s="73"/>
+      <c r="F230" s="73"/>
+      <c r="G230" s="73"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="63"/>
-      <c r="B231" s="64"/>
-      <c r="C231" s="64"/>
-      <c r="D231" s="64"/>
-      <c r="E231" s="64"/>
-      <c r="F231" s="64"/>
-      <c r="G231" s="64"/>
+      <c r="A231" s="72"/>
+      <c r="B231" s="73"/>
+      <c r="C231" s="73"/>
+      <c r="D231" s="73"/>
+      <c r="E231" s="73"/>
+      <c r="F231" s="73"/>
+      <c r="G231" s="73"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="63"/>
-      <c r="B232" s="64"/>
-      <c r="C232" s="64"/>
-      <c r="D232" s="64"/>
-      <c r="E232" s="64"/>
-      <c r="F232" s="64"/>
-      <c r="G232" s="64"/>
+      <c r="A232" s="72"/>
+      <c r="B232" s="73"/>
+      <c r="C232" s="73"/>
+      <c r="D232" s="73"/>
+      <c r="E232" s="73"/>
+      <c r="F232" s="73"/>
+      <c r="G232" s="73"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="63"/>
-      <c r="B233" s="64"/>
-      <c r="C233" s="64"/>
-      <c r="D233" s="64"/>
-      <c r="E233" s="64"/>
-      <c r="F233" s="64"/>
-      <c r="G233" s="64"/>
+      <c r="A233" s="72"/>
+      <c r="B233" s="73"/>
+      <c r="C233" s="73"/>
+      <c r="D233" s="73"/>
+      <c r="E233" s="73"/>
+      <c r="F233" s="73"/>
+      <c r="G233" s="73"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="63"/>
-      <c r="B234" s="64"/>
-      <c r="C234" s="64"/>
-      <c r="D234" s="64"/>
-      <c r="E234" s="64"/>
-      <c r="F234" s="64"/>
-      <c r="G234" s="64"/>
+      <c r="A234" s="72"/>
+      <c r="B234" s="73"/>
+      <c r="C234" s="73"/>
+      <c r="D234" s="73"/>
+      <c r="E234" s="73"/>
+      <c r="F234" s="73"/>
+      <c r="G234" s="73"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="63"/>
-      <c r="B235" s="64"/>
-      <c r="C235" s="64"/>
-      <c r="D235" s="64"/>
-      <c r="E235" s="64"/>
-      <c r="F235" s="64"/>
-      <c r="G235" s="64"/>
+      <c r="A235" s="72"/>
+      <c r="B235" s="73"/>
+      <c r="C235" s="73"/>
+      <c r="D235" s="73"/>
+      <c r="E235" s="73"/>
+      <c r="F235" s="73"/>
+      <c r="G235" s="73"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="63"/>
-      <c r="B236" s="64"/>
-      <c r="C236" s="64"/>
-      <c r="D236" s="64"/>
-      <c r="E236" s="64"/>
-      <c r="F236" s="64"/>
-      <c r="G236" s="64"/>
+      <c r="A236" s="72"/>
+      <c r="B236" s="73"/>
+      <c r="C236" s="73"/>
+      <c r="D236" s="73"/>
+      <c r="E236" s="73"/>
+      <c r="F236" s="73"/>
+      <c r="G236" s="73"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="63"/>
-      <c r="B237" s="64"/>
-      <c r="C237" s="64"/>
-      <c r="D237" s="64"/>
-      <c r="E237" s="64"/>
-      <c r="F237" s="64"/>
-      <c r="G237" s="64"/>
+      <c r="A237" s="72"/>
+      <c r="B237" s="73"/>
+      <c r="C237" s="73"/>
+      <c r="D237" s="73"/>
+      <c r="E237" s="73"/>
+      <c r="F237" s="73"/>
+      <c r="G237" s="73"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="63"/>
-      <c r="B238" s="64"/>
-      <c r="C238" s="64"/>
-      <c r="D238" s="64"/>
-      <c r="E238" s="64"/>
-      <c r="F238" s="64"/>
-      <c r="G238" s="64"/>
+      <c r="A238" s="72"/>
+      <c r="B238" s="73"/>
+      <c r="C238" s="73"/>
+      <c r="D238" s="73"/>
+      <c r="E238" s="73"/>
+      <c r="F238" s="73"/>
+      <c r="G238" s="73"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="63"/>
-      <c r="B239" s="64"/>
-      <c r="C239" s="64"/>
-      <c r="D239" s="64"/>
-      <c r="E239" s="64"/>
-      <c r="F239" s="64"/>
-      <c r="G239" s="64"/>
+      <c r="A239" s="72"/>
+      <c r="B239" s="73"/>
+      <c r="C239" s="73"/>
+      <c r="D239" s="73"/>
+      <c r="E239" s="73"/>
+      <c r="F239" s="73"/>
+      <c r="G239" s="73"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="63"/>
-      <c r="B240" s="64"/>
-      <c r="C240" s="64"/>
-      <c r="D240" s="64"/>
-      <c r="E240" s="64"/>
-      <c r="F240" s="64"/>
-      <c r="G240" s="64"/>
+      <c r="A240" s="72"/>
+      <c r="B240" s="73"/>
+      <c r="C240" s="73"/>
+      <c r="D240" s="73"/>
+      <c r="E240" s="73"/>
+      <c r="F240" s="73"/>
+      <c r="G240" s="73"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="63"/>
-      <c r="B241" s="64"/>
-      <c r="C241" s="64"/>
-      <c r="D241" s="64"/>
-      <c r="E241" s="64"/>
-      <c r="F241" s="64"/>
-      <c r="G241" s="64"/>
+      <c r="A241" s="72"/>
+      <c r="B241" s="73"/>
+      <c r="C241" s="73"/>
+      <c r="D241" s="73"/>
+      <c r="E241" s="73"/>
+      <c r="F241" s="73"/>
+      <c r="G241" s="73"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="63"/>
-      <c r="B242" s="64"/>
-      <c r="C242" s="64"/>
-      <c r="D242" s="64"/>
-      <c r="E242" s="64"/>
-      <c r="F242" s="64"/>
-      <c r="G242" s="64"/>
+      <c r="A242" s="72"/>
+      <c r="B242" s="73"/>
+      <c r="C242" s="73"/>
+      <c r="D242" s="73"/>
+      <c r="E242" s="73"/>
+      <c r="F242" s="73"/>
+      <c r="G242" s="73"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="63"/>
-      <c r="B243" s="64"/>
-      <c r="C243" s="64"/>
-      <c r="D243" s="64"/>
-      <c r="E243" s="64"/>
-      <c r="F243" s="64"/>
-      <c r="G243" s="64"/>
+      <c r="A243" s="72"/>
+      <c r="B243" s="73"/>
+      <c r="C243" s="73"/>
+      <c r="D243" s="73"/>
+      <c r="E243" s="73"/>
+      <c r="F243" s="73"/>
+      <c r="G243" s="73"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="63"/>
-      <c r="B244" s="64"/>
-      <c r="C244" s="64"/>
-      <c r="D244" s="64"/>
-      <c r="E244" s="64"/>
-      <c r="F244" s="64"/>
-      <c r="G244" s="64"/>
+      <c r="A244" s="72"/>
+      <c r="B244" s="73"/>
+      <c r="C244" s="73"/>
+      <c r="D244" s="73"/>
+      <c r="E244" s="73"/>
+      <c r="F244" s="73"/>
+      <c r="G244" s="73"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="63"/>
-      <c r="B245" s="64"/>
-      <c r="C245" s="64"/>
-      <c r="D245" s="64"/>
-      <c r="E245" s="64"/>
-      <c r="F245" s="64"/>
-      <c r="G245" s="64"/>
+      <c r="A245" s="72"/>
+      <c r="B245" s="73"/>
+      <c r="C245" s="73"/>
+      <c r="D245" s="73"/>
+      <c r="E245" s="73"/>
+      <c r="F245" s="73"/>
+      <c r="G245" s="73"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="63"/>
-      <c r="B246" s="64"/>
-      <c r="C246" s="64"/>
-      <c r="D246" s="64"/>
-      <c r="E246" s="64"/>
-      <c r="F246" s="64"/>
-      <c r="G246" s="64"/>
+      <c r="A246" s="72"/>
+      <c r="B246" s="73"/>
+      <c r="C246" s="73"/>
+      <c r="D246" s="73"/>
+      <c r="E246" s="73"/>
+      <c r="F246" s="73"/>
+      <c r="G246" s="73"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="63"/>
-      <c r="B247" s="64"/>
-      <c r="C247" s="64"/>
-      <c r="D247" s="64"/>
-      <c r="E247" s="64"/>
-      <c r="F247" s="64"/>
-      <c r="G247" s="64"/>
+      <c r="A247" s="72"/>
+      <c r="B247" s="73"/>
+      <c r="C247" s="73"/>
+      <c r="D247" s="73"/>
+      <c r="E247" s="73"/>
+      <c r="F247" s="73"/>
+      <c r="G247" s="73"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="63"/>
-      <c r="B248" s="64"/>
-      <c r="C248" s="64"/>
-      <c r="D248" s="64"/>
-      <c r="E248" s="64"/>
-      <c r="F248" s="64"/>
-      <c r="G248" s="64"/>
+      <c r="A248" s="72"/>
+      <c r="B248" s="73"/>
+      <c r="C248" s="73"/>
+      <c r="D248" s="73"/>
+      <c r="E248" s="73"/>
+      <c r="F248" s="73"/>
+      <c r="G248" s="73"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="63"/>
-      <c r="B249" s="64"/>
-      <c r="C249" s="64"/>
-      <c r="D249" s="64"/>
-      <c r="E249" s="64"/>
-      <c r="F249" s="64"/>
-      <c r="G249" s="64"/>
+      <c r="A249" s="72"/>
+      <c r="B249" s="73"/>
+      <c r="C249" s="73"/>
+      <c r="D249" s="73"/>
+      <c r="E249" s="73"/>
+      <c r="F249" s="73"/>
+      <c r="G249" s="73"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="63"/>
-      <c r="B250" s="64"/>
-      <c r="C250" s="64"/>
-      <c r="D250" s="64"/>
-      <c r="E250" s="64"/>
-      <c r="F250" s="64"/>
-      <c r="G250" s="64"/>
+      <c r="A250" s="72"/>
+      <c r="B250" s="73"/>
+      <c r="C250" s="73"/>
+      <c r="D250" s="73"/>
+      <c r="E250" s="73"/>
+      <c r="F250" s="73"/>
+      <c r="G250" s="73"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="63"/>
-      <c r="B251" s="64"/>
-      <c r="C251" s="64"/>
-      <c r="D251" s="64"/>
-      <c r="E251" s="64"/>
-      <c r="F251" s="64"/>
-      <c r="G251" s="64"/>
+      <c r="A251" s="72"/>
+      <c r="B251" s="73"/>
+      <c r="C251" s="73"/>
+      <c r="D251" s="73"/>
+      <c r="E251" s="73"/>
+      <c r="F251" s="73"/>
+      <c r="G251" s="73"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="63"/>
-      <c r="B252" s="64"/>
-      <c r="C252" s="64"/>
-      <c r="D252" s="64"/>
-      <c r="E252" s="64"/>
-      <c r="F252" s="64"/>
-      <c r="G252" s="64"/>
+      <c r="A252" s="72"/>
+      <c r="B252" s="73"/>
+      <c r="C252" s="73"/>
+      <c r="D252" s="73"/>
+      <c r="E252" s="73"/>
+      <c r="F252" s="73"/>
+      <c r="G252" s="73"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="63"/>
-      <c r="B253" s="64"/>
-      <c r="C253" s="64"/>
-      <c r="D253" s="64"/>
-      <c r="E253" s="64"/>
-      <c r="F253" s="64"/>
-      <c r="G253" s="64"/>
+      <c r="A253" s="72"/>
+      <c r="B253" s="73"/>
+      <c r="C253" s="73"/>
+      <c r="D253" s="73"/>
+      <c r="E253" s="73"/>
+      <c r="F253" s="73"/>
+      <c r="G253" s="73"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="63"/>
-      <c r="B254" s="64"/>
-      <c r="C254" s="64"/>
-      <c r="D254" s="64"/>
-      <c r="E254" s="64"/>
-      <c r="F254" s="64"/>
-      <c r="G254" s="64"/>
+      <c r="A254" s="72"/>
+      <c r="B254" s="73"/>
+      <c r="C254" s="73"/>
+      <c r="D254" s="73"/>
+      <c r="E254" s="73"/>
+      <c r="F254" s="73"/>
+      <c r="G254" s="73"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="63"/>
-      <c r="B255" s="64"/>
-      <c r="C255" s="64"/>
-      <c r="D255" s="64"/>
-      <c r="E255" s="64"/>
-      <c r="F255" s="64"/>
-      <c r="G255" s="64"/>
+      <c r="A255" s="72"/>
+      <c r="B255" s="73"/>
+      <c r="C255" s="73"/>
+      <c r="D255" s="73"/>
+      <c r="E255" s="73"/>
+      <c r="F255" s="73"/>
+      <c r="G255" s="73"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="63"/>
-      <c r="B256" s="64"/>
-      <c r="C256" s="64"/>
-      <c r="D256" s="64"/>
-      <c r="E256" s="64"/>
-      <c r="F256" s="64"/>
-      <c r="G256" s="64"/>
+      <c r="A256" s="72"/>
+      <c r="B256" s="73"/>
+      <c r="C256" s="73"/>
+      <c r="D256" s="73"/>
+      <c r="E256" s="73"/>
+      <c r="F256" s="73"/>
+      <c r="G256" s="73"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="63"/>
-      <c r="B257" s="64"/>
-      <c r="C257" s="64"/>
-      <c r="D257" s="64"/>
-      <c r="E257" s="64"/>
-      <c r="F257" s="64"/>
-      <c r="G257" s="64"/>
+      <c r="A257" s="72"/>
+      <c r="B257" s="73"/>
+      <c r="C257" s="73"/>
+      <c r="D257" s="73"/>
+      <c r="E257" s="73"/>
+      <c r="F257" s="73"/>
+      <c r="G257" s="73"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="63"/>
-      <c r="B258" s="64"/>
-      <c r="C258" s="64"/>
-      <c r="D258" s="64"/>
-      <c r="E258" s="64"/>
-      <c r="F258" s="64"/>
-      <c r="G258" s="64"/>
+      <c r="A258" s="72"/>
+      <c r="B258" s="73"/>
+      <c r="C258" s="73"/>
+      <c r="D258" s="73"/>
+      <c r="E258" s="73"/>
+      <c r="F258" s="73"/>
+      <c r="G258" s="73"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="63"/>
-      <c r="B259" s="64"/>
-      <c r="C259" s="64"/>
-      <c r="D259" s="64"/>
-      <c r="E259" s="64"/>
-      <c r="F259" s="64"/>
-      <c r="G259" s="64"/>
+      <c r="A259" s="72"/>
+      <c r="B259" s="73"/>
+      <c r="C259" s="73"/>
+      <c r="D259" s="73"/>
+      <c r="E259" s="73"/>
+      <c r="F259" s="73"/>
+      <c r="G259" s="73"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="63"/>
-      <c r="B260" s="64"/>
-      <c r="C260" s="64"/>
-      <c r="D260" s="64"/>
-      <c r="E260" s="64"/>
-      <c r="F260" s="64"/>
-      <c r="G260" s="64"/>
+      <c r="A260" s="72"/>
+      <c r="B260" s="73"/>
+      <c r="C260" s="73"/>
+      <c r="D260" s="73"/>
+      <c r="E260" s="73"/>
+      <c r="F260" s="73"/>
+      <c r="G260" s="73"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="63"/>
-      <c r="B261" s="64"/>
-      <c r="C261" s="64"/>
-      <c r="D261" s="64"/>
-      <c r="E261" s="64"/>
-      <c r="F261" s="64"/>
-      <c r="G261" s="64"/>
+      <c r="A261" s="72"/>
+      <c r="B261" s="73"/>
+      <c r="C261" s="73"/>
+      <c r="D261" s="73"/>
+      <c r="E261" s="73"/>
+      <c r="F261" s="73"/>
+      <c r="G261" s="73"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="63"/>
-      <c r="B262" s="64"/>
-      <c r="C262" s="64"/>
-      <c r="D262" s="64"/>
-      <c r="E262" s="64"/>
-      <c r="F262" s="64"/>
-      <c r="G262" s="64"/>
+      <c r="A262" s="72"/>
+      <c r="B262" s="73"/>
+      <c r="C262" s="73"/>
+      <c r="D262" s="73"/>
+      <c r="E262" s="73"/>
+      <c r="F262" s="73"/>
+      <c r="G262" s="73"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="63"/>
-      <c r="B263" s="64"/>
-      <c r="C263" s="64"/>
-      <c r="D263" s="64"/>
-      <c r="E263" s="64"/>
-      <c r="F263" s="64"/>
-      <c r="G263" s="64"/>
+      <c r="A263" s="72"/>
+      <c r="B263" s="73"/>
+      <c r="C263" s="73"/>
+      <c r="D263" s="73"/>
+      <c r="E263" s="73"/>
+      <c r="F263" s="73"/>
+      <c r="G263" s="73"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="63"/>
-      <c r="B264" s="64"/>
-      <c r="C264" s="64"/>
-      <c r="D264" s="64"/>
-      <c r="E264" s="64"/>
-      <c r="F264" s="64"/>
-      <c r="G264" s="64"/>
+      <c r="A264" s="72"/>
+      <c r="B264" s="73"/>
+      <c r="C264" s="73"/>
+      <c r="D264" s="73"/>
+      <c r="E264" s="73"/>
+      <c r="F264" s="73"/>
+      <c r="G264" s="73"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="63"/>
-      <c r="B265" s="64"/>
-      <c r="C265" s="64"/>
-      <c r="D265" s="64"/>
-      <c r="E265" s="64"/>
-      <c r="F265" s="64"/>
-      <c r="G265" s="64"/>
+      <c r="A265" s="72"/>
+      <c r="B265" s="73"/>
+      <c r="C265" s="73"/>
+      <c r="D265" s="73"/>
+      <c r="E265" s="73"/>
+      <c r="F265" s="73"/>
+      <c r="G265" s="73"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="63"/>
-      <c r="B266" s="64"/>
-      <c r="C266" s="64"/>
-      <c r="D266" s="64"/>
-      <c r="E266" s="64"/>
-      <c r="F266" s="64"/>
-      <c r="G266" s="64"/>
+      <c r="A266" s="72"/>
+      <c r="B266" s="73"/>
+      <c r="C266" s="73"/>
+      <c r="D266" s="73"/>
+      <c r="E266" s="73"/>
+      <c r="F266" s="73"/>
+      <c r="G266" s="73"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="63"/>
-      <c r="B267" s="64"/>
-      <c r="C267" s="64"/>
-      <c r="D267" s="64"/>
-      <c r="E267" s="64"/>
-      <c r="F267" s="64"/>
-      <c r="G267" s="64"/>
+      <c r="A267" s="72"/>
+      <c r="B267" s="73"/>
+      <c r="C267" s="73"/>
+      <c r="D267" s="73"/>
+      <c r="E267" s="73"/>
+      <c r="F267" s="73"/>
+      <c r="G267" s="73"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="63"/>
-      <c r="B268" s="64"/>
-      <c r="C268" s="64"/>
-      <c r="D268" s="64"/>
-      <c r="E268" s="64"/>
-      <c r="F268" s="64"/>
-      <c r="G268" s="64"/>
+      <c r="A268" s="72"/>
+      <c r="B268" s="73"/>
+      <c r="C268" s="73"/>
+      <c r="D268" s="73"/>
+      <c r="E268" s="73"/>
+      <c r="F268" s="73"/>
+      <c r="G268" s="73"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="63"/>
-      <c r="B269" s="64"/>
-      <c r="C269" s="64"/>
-      <c r="D269" s="64"/>
-      <c r="E269" s="64"/>
-      <c r="F269" s="64"/>
-      <c r="G269" s="64"/>
+      <c r="A269" s="72"/>
+      <c r="B269" s="73"/>
+      <c r="C269" s="73"/>
+      <c r="D269" s="73"/>
+      <c r="E269" s="73"/>
+      <c r="F269" s="73"/>
+      <c r="G269" s="73"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="63"/>
-      <c r="B270" s="64"/>
-      <c r="C270" s="64"/>
-      <c r="D270" s="64"/>
-      <c r="E270" s="64"/>
-      <c r="F270" s="64"/>
-      <c r="G270" s="64"/>
+      <c r="A270" s="72"/>
+      <c r="B270" s="73"/>
+      <c r="C270" s="73"/>
+      <c r="D270" s="73"/>
+      <c r="E270" s="73"/>
+      <c r="F270" s="73"/>
+      <c r="G270" s="73"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="63"/>
-      <c r="B271" s="64"/>
-      <c r="C271" s="64"/>
-      <c r="D271" s="64"/>
-      <c r="E271" s="64"/>
-      <c r="F271" s="64"/>
-      <c r="G271" s="64"/>
+      <c r="A271" s="72"/>
+      <c r="B271" s="73"/>
+      <c r="C271" s="73"/>
+      <c r="D271" s="73"/>
+      <c r="E271" s="73"/>
+      <c r="F271" s="73"/>
+      <c r="G271" s="73"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="63"/>
-      <c r="B272" s="64"/>
-      <c r="C272" s="64"/>
-      <c r="D272" s="64"/>
-      <c r="E272" s="64"/>
-      <c r="F272" s="64"/>
-      <c r="G272" s="64"/>
+      <c r="A272" s="72"/>
+      <c r="B272" s="73"/>
+      <c r="C272" s="73"/>
+      <c r="D272" s="73"/>
+      <c r="E272" s="73"/>
+      <c r="F272" s="73"/>
+      <c r="G272" s="73"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="63"/>
-      <c r="B273" s="64"/>
-      <c r="C273" s="64"/>
-      <c r="D273" s="64"/>
-      <c r="E273" s="64"/>
-      <c r="F273" s="64"/>
-      <c r="G273" s="64"/>
+      <c r="A273" s="72"/>
+      <c r="B273" s="73"/>
+      <c r="C273" s="73"/>
+      <c r="D273" s="73"/>
+      <c r="E273" s="73"/>
+      <c r="F273" s="73"/>
+      <c r="G273" s="73"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="63"/>
-      <c r="B274" s="64"/>
-      <c r="C274" s="64"/>
-      <c r="D274" s="64"/>
-      <c r="E274" s="64"/>
-      <c r="F274" s="64"/>
-      <c r="G274" s="64"/>
+      <c r="A274" s="72"/>
+      <c r="B274" s="73"/>
+      <c r="C274" s="73"/>
+      <c r="D274" s="73"/>
+      <c r="E274" s="73"/>
+      <c r="F274" s="73"/>
+      <c r="G274" s="73"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="63"/>
-      <c r="B275" s="64"/>
-      <c r="C275" s="64"/>
-      <c r="D275" s="64"/>
-      <c r="E275" s="64"/>
-      <c r="F275" s="64"/>
-      <c r="G275" s="64"/>
+      <c r="A275" s="72"/>
+      <c r="B275" s="73"/>
+      <c r="C275" s="73"/>
+      <c r="D275" s="73"/>
+      <c r="E275" s="73"/>
+      <c r="F275" s="73"/>
+      <c r="G275" s="73"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="63"/>
-      <c r="B276" s="64"/>
-      <c r="C276" s="64"/>
-      <c r="D276" s="64"/>
-      <c r="E276" s="64"/>
-      <c r="F276" s="64"/>
-      <c r="G276" s="64"/>
+      <c r="A276" s="72"/>
+      <c r="B276" s="73"/>
+      <c r="C276" s="73"/>
+      <c r="D276" s="73"/>
+      <c r="E276" s="73"/>
+      <c r="F276" s="73"/>
+      <c r="G276" s="73"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="63"/>
-      <c r="B277" s="64"/>
-      <c r="C277" s="64"/>
-      <c r="D277" s="64"/>
-      <c r="E277" s="64"/>
-      <c r="F277" s="64"/>
-      <c r="G277" s="64"/>
+      <c r="A277" s="72"/>
+      <c r="B277" s="73"/>
+      <c r="C277" s="73"/>
+      <c r="D277" s="73"/>
+      <c r="E277" s="73"/>
+      <c r="F277" s="73"/>
+      <c r="G277" s="73"/>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="72"/>
+      <c r="B278" s="73"/>
+      <c r="C278" s="73"/>
+      <c r="D278" s="73"/>
+      <c r="E278" s="73"/>
+      <c r="F278" s="73"/>
+      <c r="G278" s="73"/>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="72"/>
+      <c r="B279" s="73"/>
+      <c r="C279" s="73"/>
+      <c r="D279" s="73"/>
+      <c r="E279" s="73"/>
+      <c r="F279" s="73"/>
+      <c r="G279" s="73"/>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="72"/>
+      <c r="B280" s="73"/>
+      <c r="C280" s="73"/>
+      <c r="D280" s="73"/>
+      <c r="E280" s="73"/>
+      <c r="F280" s="73"/>
+      <c r="G280" s="73"/>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="72"/>
+      <c r="B281" s="73"/>
+      <c r="C281" s="73"/>
+      <c r="D281" s="73"/>
+      <c r="E281" s="73"/>
+      <c r="F281" s="73"/>
+      <c r="G281" s="73"/>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="72"/>
+      <c r="B282" s="73"/>
+      <c r="C282" s="73"/>
+      <c r="D282" s="73"/>
+      <c r="E282" s="73"/>
+      <c r="F282" s="73"/>
+      <c r="G282" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
+  <mergeCells count="178">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
@@ -5696,71 +5874,114 @@
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
     <mergeCell ref="E60:E62"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
     <mergeCell ref="E63:E66"/>
     <mergeCell ref="A67:A69"/>
     <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
     <mergeCell ref="E67:E69"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
     <mergeCell ref="E72:E73"/>
     <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="D74:D81"/>
     <mergeCell ref="E74:E81"/>
     <mergeCell ref="F74:F75"/>
     <mergeCell ref="G74:G75"/>
     <mergeCell ref="A75:A81"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
     <mergeCell ref="E82:E83"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
     <mergeCell ref="E84:E85"/>
     <mergeCell ref="A86:A92"/>
     <mergeCell ref="B86:B92"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="D86:D92"/>
     <mergeCell ref="E86:E92"/>
     <mergeCell ref="A93:A95"/>
     <mergeCell ref="B93:B95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
     <mergeCell ref="E93:E95"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
     <mergeCell ref="E96:E97"/>
     <mergeCell ref="A98:A105"/>
     <mergeCell ref="B98:B105"/>
+    <mergeCell ref="C98:C105"/>
+    <mergeCell ref="D98:D105"/>
+    <mergeCell ref="E98:E105"/>
     <mergeCell ref="A106:A118"/>
     <mergeCell ref="B106:B118"/>
+    <mergeCell ref="C106:C118"/>
+    <mergeCell ref="D106:D118"/>
     <mergeCell ref="E106:E118"/>
     <mergeCell ref="A119:A124"/>
     <mergeCell ref="B119:B124"/>
+    <mergeCell ref="C119:C124"/>
+    <mergeCell ref="D119:D124"/>
     <mergeCell ref="E119:E124"/>
     <mergeCell ref="A125:A131"/>
     <mergeCell ref="B125:B131"/>
+    <mergeCell ref="C125:C131"/>
+    <mergeCell ref="D125:D131"/>
     <mergeCell ref="E125:E131"/>
     <mergeCell ref="A132:A140"/>
     <mergeCell ref="B132:B140"/>
+    <mergeCell ref="C132:C140"/>
+    <mergeCell ref="D132:D140"/>
     <mergeCell ref="E132:E140"/>
     <mergeCell ref="A141:A143"/>
     <mergeCell ref="B141:B143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
     <mergeCell ref="E141:E143"/>
     <mergeCell ref="A144:A146"/>
     <mergeCell ref="B144:B146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
     <mergeCell ref="E144:E146"/>
     <mergeCell ref="A147:G147"/>
     <mergeCell ref="A148:A151"/>
     <mergeCell ref="B148:B151"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="D148:D151"/>
     <mergeCell ref="E148:E151"/>
     <mergeCell ref="A155:G155"/>
     <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
     <mergeCell ref="E157:E158"/>
     <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B167:G167"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B177:G177"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D1 D21:D39 D41:D53" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D1 D24:D39 D41:D53 D55 D57 D59:D60 D63:D66 D69 D84:D85 D92:D96 D98 D106 D119 D125 D132 D141 D144 D148 D152:D154 D156:D157 D159" type="list">
       <formula1>"High,Middle,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
